--- a/planilhas/transacao.xlsx
+++ b/planilhas/transacao.xlsx
@@ -4813,7 +4813,7 @@
   <dimension ref="A1:K795"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
